--- a/Cost benefit analysis.xlsx
+++ b/Cost benefit analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business analyst and business intelligence analyst\Business analyst\Professional projects\Business Process Optimization for a Retail Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1050B865-F48E-4B47-BB8D-C8D05E394C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268DF5B-7827-419C-B2A7-87E6F240458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Net Benefit (Yearly)</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Without Automation</t>
+  </si>
+  <si>
+    <t>With Automation</t>
   </si>
 </sst>
 </file>
@@ -79,15 +88,63 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,13 +152,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,97 +539,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="9">
         <v>10000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="9">
         <v>2000</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="9">
         <v>1000</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="11">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="13">
         <v>13000</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="15">
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <v>13000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C12" s="20">
         <v>2000</v>
       </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
